--- a/Data/EC/NIT-9008904718.xlsx
+++ b/Data/EC/NIT-9008904718.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52DA8D18-E290-486A-A2E5-42C41A887C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5995C4B8-5E7C-4E04-BA5C-77D611E1CC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A77AF95-EBEC-4051-B536-428D361FB984}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74AE6510-CD71-4057-BC0F-4E664ED49CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,67 +65,79 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128056957</t>
+  </si>
+  <si>
+    <t>ERIK NAYID GARCIA LEDESMA</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>9145510</t>
+  </si>
+  <si>
+    <t>HERNAN MIGUEL SALCEDO VIVIERO</t>
+  </si>
+  <si>
+    <t>1047486409</t>
+  </si>
+  <si>
+    <t>WENDY JULIETH CARMONA MIRANDA</t>
+  </si>
+  <si>
+    <t>1143361451</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS CARVAJAL CASTILLO</t>
+  </si>
+  <si>
+    <t>1050966362</t>
+  </si>
+  <si>
+    <t>ANGELLO ALEXANDER BUSTOS CABALLERO</t>
+  </si>
+  <si>
+    <t>73134020</t>
+  </si>
+  <si>
+    <t>JOSE HUMBERTO FIERRO LLAMAS</t>
+  </si>
+  <si>
+    <t>1128058432</t>
+  </si>
+  <si>
+    <t>IVAN ANDRES DIAZ FERNANDEZ</t>
+  </si>
+  <si>
+    <t>1007170122</t>
+  </si>
+  <si>
+    <t>ALEXANDER MARRUGO JUNCO</t>
+  </si>
+  <si>
+    <t>1047510382</t>
+  </si>
+  <si>
+    <t>ANSELMO YANES MIRANDA</t>
+  </si>
+  <si>
     <t>1127612794</t>
   </si>
   <si>
     <t>LUIS ANSELMO YANES MIRANDA</t>
   </si>
   <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>9145510</t>
-  </si>
-  <si>
-    <t>HERNAN MIGUEL SALCEDO VIVIERO</t>
-  </si>
-  <si>
-    <t>1007170122</t>
-  </si>
-  <si>
-    <t>ALEXANDER MARRUGO JUNCO</t>
-  </si>
-  <si>
-    <t>1128056957</t>
-  </si>
-  <si>
-    <t>ERIK NAYID GARCIA LEDESMA</t>
-  </si>
-  <si>
-    <t>1128058432</t>
-  </si>
-  <si>
-    <t>IVAN ANDRES DIAZ FERNANDEZ</t>
+    <t>1007981041</t>
+  </si>
+  <si>
+    <t>JOSE DAVID VERGARA OSPINA</t>
   </si>
   <si>
     <t>1003061874</t>
   </si>
   <si>
     <t>JOEL ANTONIO BULASCO CABRIA</t>
-  </si>
-  <si>
-    <t>1050966362</t>
-  </si>
-  <si>
-    <t>ANGELLO ALEXANDER BUSTOS CABALLERO</t>
-  </si>
-  <si>
-    <t>1143361451</t>
-  </si>
-  <si>
-    <t>ROBERTO CARLOS CARVAJAL CASTILLO</t>
-  </si>
-  <si>
-    <t>1047486409</t>
-  </si>
-  <si>
-    <t>WENDY JULIETH CARMONA MIRANDA</t>
-  </si>
-  <si>
-    <t>1007981041</t>
-  </si>
-  <si>
-    <t>JOSE DAVID VERGARA OSPINA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -539,7 +551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D43BA11-37CF-7FDD-7232-A1C75BB56EF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83545ECE-92B4-D12E-FFC1-1103D24043A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,8 +902,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AFA095-92B3-4854-87CC-55B263DB8728}">
-  <dimension ref="B2:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2265A7C-2306-4275-B431-2B49EBF3E380}">
+  <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -915,7 +927,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -960,7 +972,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -992,12 +1004,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>138094</v>
+        <v>145725</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1008,14 +1020,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1045,13 +1057,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1068,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>20593</v>
+        <v>10902</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1114,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>10902</v>
+        <v>23016</v>
       </c>
       <c r="G18" s="18">
         <v>908526</v>
@@ -1160,7 +1172,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>27861</v>
+        <v>10902</v>
       </c>
       <c r="G20" s="18">
         <v>908526</v>
@@ -1183,10 +1195,10 @@
         <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>6057</v>
+        <v>2786</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1044804</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1206,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>10902</v>
+        <v>27861</v>
       </c>
       <c r="G22" s="18">
         <v>908526</v>
@@ -1252,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>23016</v>
+        <v>4845</v>
       </c>
       <c r="G24" s="18">
         <v>908526</v>
@@ -1262,56 +1274,102 @@
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="18">
+        <v>20593</v>
+      </c>
+      <c r="G25" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="18">
         <v>10902</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G26" s="18">
         <v>908526</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="H30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="H31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="24">
+        <v>6057</v>
+      </c>
+      <c r="G27" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="H32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H32:J32"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9008904718.xlsx
+++ b/Data/EC/NIT-9008904718.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5995C4B8-5E7C-4E04-BA5C-77D611E1CC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB5474D-5944-4446-8741-ED717F72FCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74AE6510-CD71-4057-BC0F-4E664ED49CCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{715DF040-FD30-466A-AF46-642CC8540AC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -98,12 +98,6 @@
     <t>ANGELLO ALEXANDER BUSTOS CABALLERO</t>
   </si>
   <si>
-    <t>73134020</t>
-  </si>
-  <si>
-    <t>JOSE HUMBERTO FIERRO LLAMAS</t>
-  </si>
-  <si>
     <t>1128058432</t>
   </si>
   <si>
@@ -114,12 +108,6 @@
   </si>
   <si>
     <t>ALEXANDER MARRUGO JUNCO</t>
-  </si>
-  <si>
-    <t>1047510382</t>
-  </si>
-  <si>
-    <t>ANSELMO YANES MIRANDA</t>
   </si>
   <si>
     <t>1127612794</t>
@@ -181,7 +169,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +224,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -249,9 +239,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,23 +439,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,10 +483,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,13 +524,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -551,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83545ECE-92B4-D12E-FFC1-1103D24043A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63BFA44F-374C-E156-297F-41E2FB4C8B76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -573,7 +561,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -902,32 +890,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2265A7C-2306-4275-B431-2B49EBF3E380}">
-  <dimension ref="B2:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCE2936-6BA9-4871-BF71-4F14CBE2784A}">
+  <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -936,7 +924,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -947,7 +935,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -958,7 +946,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -969,10 +957,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -985,8 +973,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1001,15 +989,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>145725</v>
+        <v>138094</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1017,17 +1005,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1037,7 +1025,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1057,16 +1045,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1089,7 +1077,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1100,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1123,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1146,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1169,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1195,16 +1183,16 @@
         <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>2786</v>
+        <v>27861</v>
       </c>
       <c r="G21" s="18">
-        <v>1044804</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1218,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>27861</v>
+        <v>10902</v>
       </c>
       <c r="G22" s="18">
         <v>908526</v>
@@ -1227,7 +1215,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1241,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>10902</v>
+        <v>20593</v>
       </c>
       <c r="G23" s="18">
         <v>908526</v>
@@ -1250,7 +1238,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1264,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>4845</v>
+        <v>10902</v>
       </c>
       <c r="G24" s="18">
         <v>908526</v>
@@ -1273,103 +1261,57 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="2:10">
+      <c r="B25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="18">
-        <v>20593</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="F25" s="24">
+        <v>6057</v>
+      </c>
+      <c r="G25" s="24">
         <v>908526</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="18">
-        <v>10902</v>
-      </c>
-      <c r="G26" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="24">
-        <v>6057</v>
-      </c>
-      <c r="G27" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="H30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="H31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9008904718.xlsx
+++ b/Data/EC/NIT-9008904718.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB5474D-5944-4446-8741-ED717F72FCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{147407FC-0E56-4CF1-ACF4-460E93DF19C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{715DF040-FD30-466A-AF46-642CC8540AC7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9812C14C-B83B-4F21-B07F-8539651D7798}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,9 +224,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -239,7 +237,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,29 +433,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,19 +474,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,13 +530,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>496450</xdr:colOff>
+      <xdr:colOff>667900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>259200</xdr:colOff>
+      <xdr:colOff>430650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -539,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63BFA44F-374C-E156-297F-41E2FB4C8B76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF69C9E-FA48-8880-8C53-AB0D13D280FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -561,7 +567,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="750450" y="246450"/>
+          <a:off x="921900" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -890,80 +896,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCE2936-6BA9-4871-BF71-4F14CBE2784A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDAD208-0C5F-4CD7-9140-BDE61EFC390B}">
   <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -973,13 +979,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9008904718</v>
       </c>
@@ -989,13 +995,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>138094</v>
       </c>
@@ -1005,8 +1011,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
@@ -1025,7 +1031,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1064,20 +1070,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>10902</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>908526</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1087,20 +1093,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>6057</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>908526</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1110,20 +1116,20 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>23016</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>908526</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1133,20 +1139,20 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>10902</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>908526</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1156,20 +1162,20 @@
       <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>10902</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>908526</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1179,20 +1185,20 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>27861</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>908526</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1202,20 +1208,20 @@
       <c r="D22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>10902</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>908526</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1225,20 +1231,20 @@
       <c r="D23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>20593</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>908526</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1248,58 +1254,58 @@
       <c r="D24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>10902</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>908526</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="21" t="s">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="26">
         <v>6057</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="26">
         <v>908526</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="32" t="s">
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="32"/>
+      <c r="C30" s="34"/>
       <c r="H30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="32" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="32"/>
+      <c r="C31" s="34"/>
       <c r="H31" s="1" t="s">
         <v>40</v>
       </c>
